--- a/docs/vpc/EL0-EL1.xlsx
+++ b/docs/vpc/EL0-EL1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hidekazu Kato\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11323CCA-6101-4578-AA39-C71FF654248C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D70BCB6-CB91-4143-BB99-3BB80C23778C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4330" yWindow="0" windowWidth="16190" windowHeight="8830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="570" windowWidth="16190" windowHeight="8570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EL0-EL1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="211">
   <si>
     <t>MIDR_EL1</t>
   </si>
@@ -694,6 +694,30 @@
     <t>Secure EL1用レジスタ</t>
     <rPh sb="10" eb="11">
       <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>nTWE=1, nTWI=1, CP15EN=1, SA0=1, SA=1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CNTP_CVAL_EL0により値が決定される</t>
+    <rPh sb="16" eb="17">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CNTV_CVAL_EL0により値が決定される</t>
+    <rPh sb="16" eb="17">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケッテイ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -1728,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2300,7 +2324,9 @@
       <c r="E32" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2474,7 +2500,9 @@
       <c r="F41" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G41" s="2"/>
+      <c r="G41" s="2" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2" t="s">
@@ -3153,11 +3181,11 @@
       <c r="D78" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E78" s="7" t="s">
-        <v>189</v>
-      </c>
+      <c r="E78" s="7"/>
       <c r="F78" s="7"/>
-      <c r="G78" s="2"/>
+      <c r="G78" s="2" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="2" t="s">
@@ -3214,11 +3242,11 @@
       <c r="D81" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E81" s="7" t="s">
-        <v>189</v>
-      </c>
+      <c r="E81" s="7"/>
       <c r="F81" s="7"/>
-      <c r="G81" s="2"/>
+      <c r="G81" s="2" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2" t="s">
@@ -3236,7 +3264,9 @@
       <c r="E82" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F82" s="7"/>
+      <c r="F82" s="7">
+        <v>0</v>
+      </c>
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3255,7 +3285,9 @@
       <c r="E83" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F83" s="7"/>
+      <c r="F83" s="7">
+        <v>0</v>
+      </c>
       <c r="G83" s="2"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">

--- a/docs/vpc/EL0-EL1.xlsx
+++ b/docs/vpc/EL0-EL1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hidekazu Kato\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D70BCB6-CB91-4143-BB99-3BB80C23778C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F32B48-DE40-4582-A394-CFD7D011B5B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="570" windowWidth="16190" windowHeight="8570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="540" windowWidth="16190" windowHeight="9650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EL0-EL1" sheetId="1" r:id="rId1"/>
@@ -698,10 +698,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>nTWE=1, nTWI=1, CP15EN=1, SA0=1, SA=1</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>CNTP_CVAL_EL0により値が決定される</t>
     <rPh sb="16" eb="17">
       <t>アタイ</t>
@@ -719,6 +715,10 @@
     <rPh sb="18" eb="20">
       <t>ケッテイ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>nTWE=1, nTWI=1, CP15BEN=1, SA0=1, SA=1</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1752,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2501,7 +2501,7 @@
         <v>204</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3184,7 +3184,7 @@
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3245,7 +3245,7 @@
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
